--- a/data/trans_orig/Q20C-Edad-trans_orig.xlsx
+++ b/data/trans_orig/Q20C-Edad-trans_orig.xlsx
@@ -504,7 +504,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N18"/>
+  <dimension ref="A1:N20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -646,7 +646,7 @@
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>16/24</t>
+          <t>16-24</t>
         </is>
       </c>
       <c r="B4" s="3" t="inlineStr">
@@ -786,7 +786,7 @@
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>25/34</t>
+          <t>25-34</t>
         </is>
       </c>
       <c r="B6" s="3" t="inlineStr">
@@ -811,7 +811,7 @@
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>6,74</t>
+          <t>6,96</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
@@ -831,7 +831,7 @@
       </c>
       <c r="J6" s="2" t="inlineStr">
         <is>
-          <t>2,42</t>
+          <t>2,37</t>
         </is>
       </c>
       <c r="K6" s="2" t="inlineStr">
@@ -851,7 +851,7 @@
       </c>
       <c r="N6" s="2" t="inlineStr">
         <is>
-          <t>4,82</t>
+          <t>5,04</t>
         </is>
       </c>
     </row>
@@ -919,14 +919,14 @@
       </c>
       <c r="N7" s="2" t="inlineStr">
         <is>
-          <t>1,05; 9,77</t>
+          <t>1,58; 11,1</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>35/44</t>
+          <t>35-44</t>
         </is>
       </c>
       <c r="B8" s="3" t="inlineStr">
@@ -951,7 +951,7 @@
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>10,62</t>
+          <t>10,64</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
@@ -971,7 +971,7 @@
       </c>
       <c r="J8" s="2" t="inlineStr">
         <is>
-          <t>9,51</t>
+          <t>9,89</t>
         </is>
       </c>
       <c r="K8" s="2" t="inlineStr">
@@ -991,7 +991,7 @@
       </c>
       <c r="N8" s="2" t="inlineStr">
         <is>
-          <t>9,92</t>
+          <t>10,17</t>
         </is>
       </c>
     </row>
@@ -1019,7 +1019,7 @@
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>0,88; 30,89</t>
+          <t>0,9; 29,35</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
@@ -1039,7 +1039,7 @@
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>3,98; 25,09</t>
+          <t>4,06; 25,86</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
@@ -1059,14 +1059,14 @@
       </c>
       <c r="N9" s="2" t="inlineStr">
         <is>
-          <t>3,98; 19,37</t>
+          <t>4,16; 19,89</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>45/54</t>
+          <t>45-54</t>
         </is>
       </c>
       <c r="B10" s="3" t="inlineStr">
@@ -1091,7 +1091,7 @@
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>7,66</t>
+          <t>7,74</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
@@ -1111,7 +1111,7 @@
       </c>
       <c r="J10" s="2" t="inlineStr">
         <is>
-          <t>3,16</t>
+          <t>3,2</t>
         </is>
       </c>
       <c r="K10" s="2" t="inlineStr">
@@ -1131,7 +1131,7 @@
       </c>
       <c r="N10" s="2" t="inlineStr">
         <is>
-          <t>5,56</t>
+          <t>5,66</t>
         </is>
       </c>
     </row>
@@ -1159,7 +1159,7 @@
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>4,03; 18,29</t>
+          <t>4,01; 18,71</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
@@ -1179,7 +1179,7 @@
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>2,16; 4,33</t>
+          <t>2,2; 4,38</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
@@ -1199,14 +1199,14 @@
       </c>
       <c r="N11" s="2" t="inlineStr">
         <is>
-          <t>3,56; 10,81</t>
+          <t>3,62; 11,15</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
         <is>
-          <t>55/64</t>
+          <t>55-64</t>
         </is>
       </c>
       <c r="B12" s="3" t="inlineStr">
@@ -1231,7 +1231,7 @@
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
-          <t>5,41</t>
+          <t>5,42</t>
         </is>
       </c>
       <c r="G12" s="2" t="inlineStr">
@@ -1251,7 +1251,7 @@
       </c>
       <c r="J12" s="2" t="inlineStr">
         <is>
-          <t>6,49</t>
+          <t>6,45</t>
         </is>
       </c>
       <c r="K12" s="2" t="inlineStr">
@@ -1271,7 +1271,7 @@
       </c>
       <c r="N12" s="2" t="inlineStr">
         <is>
-          <t>5,78</t>
+          <t>5,77</t>
         </is>
       </c>
     </row>
@@ -1299,7 +1299,7 @@
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>2,85; 9,79</t>
+          <t>2,87; 9,75</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
@@ -1319,7 +1319,7 @@
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>3,8; 10,21</t>
+          <t>3,82; 10,15</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
@@ -1339,14 +1339,14 @@
       </c>
       <c r="N13" s="2" t="inlineStr">
         <is>
-          <t>3,69; 8,43</t>
+          <t>3,66; 8,41</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="inlineStr">
         <is>
-          <t>65 y más</t>
+          <t>65-74</t>
         </is>
       </c>
       <c r="B14" s="3" t="inlineStr">
@@ -1356,62 +1356,62 @@
       </c>
       <c r="C14" s="2" t="inlineStr">
         <is>
-          <t>11,97</t>
+          <t>17,45</t>
         </is>
       </c>
       <c r="D14" s="2" t="inlineStr">
         <is>
-          <t>5,98</t>
+          <t>7,9</t>
         </is>
       </c>
       <c r="E14" s="2" t="inlineStr">
         <is>
-          <t>11,66</t>
+          <t>14,65</t>
         </is>
       </c>
       <c r="F14" s="2" t="inlineStr">
         <is>
-          <t>7,16</t>
+          <t>8,73</t>
         </is>
       </c>
       <c r="G14" s="2" t="inlineStr">
         <is>
-          <t>4,35</t>
+          <t>4,97</t>
         </is>
       </c>
       <c r="H14" s="2" t="inlineStr">
         <is>
-          <t>3,84</t>
+          <t>4,8</t>
         </is>
       </c>
       <c r="I14" s="2" t="inlineStr">
         <is>
-          <t>5,29</t>
+          <t>7,2</t>
         </is>
       </c>
       <c r="J14" s="2" t="inlineStr">
         <is>
-          <t>5,97</t>
+          <t>8,81</t>
         </is>
       </c>
       <c r="K14" s="2" t="inlineStr">
         <is>
-          <t>6,87</t>
+          <t>9,14</t>
         </is>
       </c>
       <c r="L14" s="2" t="inlineStr">
         <is>
-          <t>4,87</t>
+          <t>6,28</t>
         </is>
       </c>
       <c r="M14" s="2" t="inlineStr">
         <is>
-          <t>7,72</t>
+          <t>10,31</t>
         </is>
       </c>
       <c r="N14" s="2" t="inlineStr">
         <is>
-          <t>6,66</t>
+          <t>8,75</t>
         </is>
       </c>
     </row>
@@ -1424,69 +1424,69 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>4,17; 32,82</t>
+          <t>5,6; 45,6</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>3,34; 11,01</t>
+          <t>3,74; 15,76</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>4,27; 30,75</t>
+          <t>4,01; 45,83</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>4,66; 11,91</t>
+          <t>5,38; 15,28</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>2,62; 6,69</t>
+          <t>3,21; 7,01</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>1,92; 8,09</t>
+          <t>1,82; 10,53</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>3,17; 9,23</t>
+          <t>3,86; 13,01</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>4,03; 9,63</t>
+          <t>4,86; 19,55</t>
         </is>
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>4,11; 14,54</t>
+          <t>5,04; 19,69</t>
         </is>
       </c>
       <c r="L15" s="2" t="inlineStr">
         <is>
-          <t>3,17; 7,86</t>
+          <t>3,53; 10,4</t>
         </is>
       </c>
       <c r="M15" s="2" t="inlineStr">
         <is>
-          <t>4,45; 15,24</t>
+          <t>5,43; 30,34</t>
         </is>
       </c>
       <c r="N15" s="2" t="inlineStr">
         <is>
-          <t>4,9; 9,47</t>
+          <t>5,83; 13,47</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
         <is>
-          <t>Total</t>
+          <t>75 o más</t>
         </is>
       </c>
       <c r="B16" s="3" t="inlineStr">
@@ -1496,62 +1496,62 @@
       </c>
       <c r="C16" s="2" t="inlineStr">
         <is>
-          <t>7,29</t>
+          <t>1,68</t>
         </is>
       </c>
       <c r="D16" s="2" t="inlineStr">
         <is>
-          <t>5,49</t>
+          <t>2,93</t>
         </is>
       </c>
       <c r="E16" s="2" t="inlineStr">
         <is>
-          <t>8,02</t>
+          <t>6,02</t>
         </is>
       </c>
       <c r="F16" s="2" t="inlineStr">
         <is>
-          <t>7,07</t>
+          <t>2,9</t>
         </is>
       </c>
       <c r="G16" s="2" t="inlineStr">
         <is>
-          <t>4,43</t>
+          <t>3,24</t>
         </is>
       </c>
       <c r="H16" s="2" t="inlineStr">
         <is>
-          <t>5,5</t>
+          <t>2,23</t>
         </is>
       </c>
       <c r="I16" s="2" t="inlineStr">
         <is>
-          <t>6,29</t>
+          <t>2,86</t>
         </is>
       </c>
       <c r="J16" s="2" t="inlineStr">
         <is>
-          <t>5,79</t>
+          <t>4,78</t>
         </is>
       </c>
       <c r="K16" s="2" t="inlineStr">
         <is>
-          <t>5,59</t>
+          <t>2,73</t>
         </is>
       </c>
       <c r="L16" s="2" t="inlineStr">
         <is>
-          <t>5,5</t>
+          <t>2,57</t>
         </is>
       </c>
       <c r="M16" s="2" t="inlineStr">
         <is>
-          <t>7,08</t>
+          <t>3,89</t>
         </is>
       </c>
       <c r="N16" s="2" t="inlineStr">
         <is>
-          <t>6,5</t>
+          <t>4,12</t>
         </is>
       </c>
     </row>
@@ -1564,74 +1564,214 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
+          <t>1,0; 2,0</t>
+        </is>
+      </c>
+      <c r="D17" s="2" t="inlineStr">
+        <is>
+          <t>0,98; 5,44</t>
+        </is>
+      </c>
+      <c r="E17" s="2" t="inlineStr">
+        <is>
+          <t>3,13; 14,72</t>
+        </is>
+      </c>
+      <c r="F17" s="2" t="inlineStr">
+        <is>
+          <t>1,61; 4,41</t>
+        </is>
+      </c>
+      <c r="G17" s="2" t="inlineStr">
+        <is>
+          <t>1,0; 9,94</t>
+        </is>
+      </c>
+      <c r="H17" s="2" t="inlineStr">
+        <is>
+          <t>1,13; 4,03</t>
+        </is>
+      </c>
+      <c r="I17" s="2" t="inlineStr">
+        <is>
+          <t>1,52; 5,11</t>
+        </is>
+      </c>
+      <c r="J17" s="2" t="inlineStr">
+        <is>
+          <t>2,88; 8,32</t>
+        </is>
+      </c>
+      <c r="K17" s="2" t="inlineStr">
+        <is>
+          <t>1,12; 7,16</t>
+        </is>
+      </c>
+      <c r="L17" s="2" t="inlineStr">
+        <is>
+          <t>1,37; 4,28</t>
+        </is>
+      </c>
+      <c r="M17" s="2" t="inlineStr">
+        <is>
+          <t>2,49; 6,76</t>
+        </is>
+      </c>
+      <c r="N17" s="2" t="inlineStr">
+        <is>
+          <t>2,78; 6,48</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B18" s="3" t="inlineStr">
+        <is>
+          <t>Media</t>
+        </is>
+      </c>
+      <c r="C18" s="2" t="inlineStr">
+        <is>
+          <t>7,29</t>
+        </is>
+      </c>
+      <c r="D18" s="2" t="inlineStr">
+        <is>
+          <t>5,49</t>
+        </is>
+      </c>
+      <c r="E18" s="2" t="inlineStr">
+        <is>
+          <t>8,02</t>
+        </is>
+      </c>
+      <c r="F18" s="2" t="inlineStr">
+        <is>
+          <t>7,15</t>
+        </is>
+      </c>
+      <c r="G18" s="2" t="inlineStr">
+        <is>
+          <t>4,43</t>
+        </is>
+      </c>
+      <c r="H18" s="2" t="inlineStr">
+        <is>
+          <t>5,5</t>
+        </is>
+      </c>
+      <c r="I18" s="2" t="inlineStr">
+        <is>
+          <t>6,29</t>
+        </is>
+      </c>
+      <c r="J18" s="2" t="inlineStr">
+        <is>
+          <t>5,9</t>
+        </is>
+      </c>
+      <c r="K18" s="2" t="inlineStr">
+        <is>
+          <t>5,59</t>
+        </is>
+      </c>
+      <c r="L18" s="2" t="inlineStr">
+        <is>
+          <t>5,5</t>
+        </is>
+      </c>
+      <c r="M18" s="2" t="inlineStr">
+        <is>
+          <t>7,08</t>
+        </is>
+      </c>
+      <c r="N18" s="2" t="inlineStr">
+        <is>
+          <t>6,61</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="1" t="n"/>
+      <c r="B19" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C19" s="2" t="inlineStr">
+        <is>
           <t>4,87; 12,32</t>
         </is>
       </c>
-      <c r="D17" s="2" t="inlineStr">
+      <c r="D19" s="2" t="inlineStr">
         <is>
           <t>4,02; 7,87</t>
         </is>
       </c>
-      <c r="E17" s="2" t="inlineStr">
+      <c r="E19" s="2" t="inlineStr">
         <is>
           <t>5,33; 14,17</t>
         </is>
       </c>
-      <c r="F17" s="2" t="inlineStr">
-        <is>
-          <t>5,18; 9,85</t>
-        </is>
-      </c>
-      <c r="G17" s="2" t="inlineStr">
+      <c r="F19" s="2" t="inlineStr">
+        <is>
+          <t>5,3; 10,04</t>
+        </is>
+      </c>
+      <c r="G19" s="2" t="inlineStr">
         <is>
           <t>3,41; 6,13</t>
         </is>
       </c>
-      <c r="H17" s="2" t="inlineStr">
+      <c r="H19" s="2" t="inlineStr">
         <is>
           <t>4,41; 6,92</t>
         </is>
       </c>
-      <c r="I17" s="2" t="inlineStr">
+      <c r="I19" s="2" t="inlineStr">
         <is>
           <t>4,92; 8,08</t>
         </is>
       </c>
-      <c r="J17" s="2" t="inlineStr">
-        <is>
-          <t>4,3; 9,05</t>
-        </is>
-      </c>
-      <c r="K17" s="2" t="inlineStr">
+      <c r="J19" s="2" t="inlineStr">
+        <is>
+          <t>4,36; 9,52</t>
+        </is>
+      </c>
+      <c r="K19" s="2" t="inlineStr">
         <is>
           <t>4,36; 7,7</t>
         </is>
       </c>
-      <c r="L17" s="2" t="inlineStr">
+      <c r="L19" s="2" t="inlineStr">
         <is>
           <t>4,61; 6,61</t>
         </is>
       </c>
-      <c r="M17" s="2" t="inlineStr">
+      <c r="M19" s="2" t="inlineStr">
         <is>
           <t>5,74; 9,92</t>
         </is>
       </c>
-      <c r="N17" s="2" t="inlineStr">
-        <is>
-          <t>5,16; 8,59</t>
-        </is>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" t="inlineStr">
+      <c r="N19" s="2" t="inlineStr">
+        <is>
+          <t>5,25; 8,8</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
         <is>
           <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
         </is>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="11">
+  <mergeCells count="12">
     <mergeCell ref="A8:A9"/>
     <mergeCell ref="A12:A13"/>
     <mergeCell ref="A4:A5"/>
@@ -1642,6 +1782,7 @@
     <mergeCell ref="G1:J1"/>
     <mergeCell ref="A6:A7"/>
     <mergeCell ref="K1:N1"/>
+    <mergeCell ref="A18:A19"/>
     <mergeCell ref="A14:A15"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/data/trans_orig/Q20C-Edad-trans_orig.xlsx
+++ b/data/trans_orig/Q20C-Edad-trans_orig.xlsx
@@ -729,7 +729,7 @@
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>0,47; 10,03</t>
+          <t>1,0; 10,03</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
@@ -749,7 +749,7 @@
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>2,47; 11,49</t>
+          <t>1,88; 11,49</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
@@ -769,12 +769,12 @@
       </c>
       <c r="L5" s="2" t="inlineStr">
         <is>
-          <t>2,59; 9,35</t>
+          <t>2,32; 8,8</t>
         </is>
       </c>
       <c r="M5" s="2" t="inlineStr">
         <is>
-          <t>4,48; 16,19</t>
+          <t>4,13; 16,12</t>
         </is>
       </c>
       <c r="N5" s="2" t="inlineStr">
@@ -864,12 +864,12 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>1,47; 5,56</t>
+          <t>1,53; 5,59</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>2,0; 6,12</t>
+          <t>1,99; 6,33</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
@@ -884,17 +884,17 @@
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>1,69; 8,79</t>
+          <t>1,68; 8,48</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>2,61; 7,7</t>
+          <t>2,61; 7,71</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>3,05; 11,4</t>
+          <t>3,05; 10,54</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
@@ -904,22 +904,22 @@
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>2,21; 6,05</t>
+          <t>2,05; 6,18</t>
         </is>
       </c>
       <c r="L7" s="2" t="inlineStr">
         <is>
-          <t>2,61; 5,77</t>
+          <t>2,6; 5,66</t>
         </is>
       </c>
       <c r="M7" s="2" t="inlineStr">
         <is>
-          <t>3,16; 9,63</t>
+          <t>3,0; 9,33</t>
         </is>
       </c>
       <c r="N7" s="2" t="inlineStr">
         <is>
-          <t>1,58; 11,1</t>
+          <t>1,22; 10,01</t>
         </is>
       </c>
     </row>
@@ -1004,62 +1004,62 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>1,65; 4,83</t>
+          <t>1,66; 4,85</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>2,16; 7,88</t>
+          <t>2,19; 8,18</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>1,27; 4,04</t>
+          <t>1,28; 4,19</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>0,9; 29,35</t>
+          <t>0,94; 28,5</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>1,57; 7,55</t>
+          <t>1,41; 7,66</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>4,61; 10,04</t>
+          <t>4,58; 9,64</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>4,27; 11,63</t>
+          <t>4,36; 11,43</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>4,06; 25,86</t>
+          <t>4,01; 25,52</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>2,0; 5,18</t>
+          <t>2,07; 5,59</t>
         </is>
       </c>
       <c r="L9" s="2" t="inlineStr">
         <is>
-          <t>4,03; 7,98</t>
+          <t>3,89; 8,0</t>
         </is>
       </c>
       <c r="M9" s="2" t="inlineStr">
         <is>
-          <t>3,01; 7,23</t>
+          <t>2,98; 7,18</t>
         </is>
       </c>
       <c r="N9" s="2" t="inlineStr">
         <is>
-          <t>4,16; 19,89</t>
+          <t>3,66; 20,65</t>
         </is>
       </c>
     </row>
@@ -1144,62 +1144,62 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>6,43; 21,74</t>
+          <t>5,77; 20,99</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>4,38; 15,22</t>
+          <t>4,39; 15,28</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>5,43; 21,8</t>
+          <t>5,45; 21,99</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>4,01; 18,71</t>
+          <t>4,01; 19,16</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>3,43; 13,19</t>
+          <t>3,26; 12,28</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>4,69; 10,13</t>
+          <t>4,78; 9,93</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>4,51; 9,22</t>
+          <t>4,26; 8,99</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>2,2; 4,38</t>
+          <t>2,2; 4,36</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>4,89; 12,84</t>
+          <t>5,0; 13,59</t>
         </is>
       </c>
       <c r="L11" s="2" t="inlineStr">
         <is>
-          <t>5,37; 10,44</t>
+          <t>5,47; 10,54</t>
         </is>
       </c>
       <c r="M11" s="2" t="inlineStr">
         <is>
-          <t>5,98; 14,33</t>
+          <t>5,92; 13,66</t>
         </is>
       </c>
       <c r="N11" s="2" t="inlineStr">
         <is>
-          <t>3,62; 11,15</t>
+          <t>3,56; 10,77</t>
         </is>
       </c>
     </row>
@@ -1284,62 +1284,62 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>3,22; 13,78</t>
+          <t>3,32; 14,32</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>1,76; 6,98</t>
+          <t>1,78; 7,01</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>3,66; 8,64</t>
+          <t>3,7; 7,98</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>2,87; 9,75</t>
+          <t>2,82; 9,55</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>2,46; 5,91</t>
+          <t>2,47; 5,9</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>2,07; 4,34</t>
+          <t>2,19; 4,41</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>3,98; 14,55</t>
+          <t>3,72; 13,69</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>3,82; 10,15</t>
+          <t>3,8; 10,03</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>3,47; 9,19</t>
+          <t>3,49; 8,56</t>
         </is>
       </c>
       <c r="L13" s="2" t="inlineStr">
         <is>
-          <t>2,34; 4,95</t>
+          <t>2,29; 5,08</t>
         </is>
       </c>
       <c r="M13" s="2" t="inlineStr">
         <is>
-          <t>4,4; 9,71</t>
+          <t>4,34; 9,78</t>
         </is>
       </c>
       <c r="N13" s="2" t="inlineStr">
         <is>
-          <t>3,66; 8,41</t>
+          <t>3,82; 8,63</t>
         </is>
       </c>
     </row>
@@ -1424,62 +1424,62 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>5,6; 45,6</t>
+          <t>5,94; 45,88</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>3,74; 15,76</t>
+          <t>3,62; 16,22</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>4,01; 45,83</t>
+          <t>4,01; 52,24</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>5,38; 15,28</t>
+          <t>5,21; 14,87</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>3,21; 7,01</t>
+          <t>3,29; 7,21</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>1,82; 10,53</t>
+          <t>1,88; 10,72</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>3,86; 13,01</t>
+          <t>3,73; 12,99</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>4,86; 19,55</t>
+          <t>4,71; 18,8</t>
         </is>
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>5,04; 19,69</t>
+          <t>5,17; 22,04</t>
         </is>
       </c>
       <c r="L15" s="2" t="inlineStr">
         <is>
-          <t>3,53; 10,4</t>
+          <t>3,51; 10,26</t>
         </is>
       </c>
       <c r="M15" s="2" t="inlineStr">
         <is>
-          <t>5,43; 30,34</t>
+          <t>5,36; 29,93</t>
         </is>
       </c>
       <c r="N15" s="2" t="inlineStr">
         <is>
-          <t>5,83; 13,47</t>
+          <t>6,15; 14,26</t>
         </is>
       </c>
     </row>
@@ -1569,57 +1569,57 @@
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>0,98; 5,44</t>
+          <t>0,98; 5,37</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>3,13; 14,72</t>
+          <t>3,16; 13,26</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>1,61; 4,41</t>
+          <t>1,51; 4,41</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>1,0; 9,94</t>
+          <t>1,0; 9,8</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>1,13; 4,03</t>
+          <t>1,0; 3,86</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>1,52; 5,11</t>
+          <t>1,59; 4,99</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>2,88; 8,32</t>
+          <t>2,92; 8,03</t>
         </is>
       </c>
       <c r="K17" s="2" t="inlineStr">
         <is>
-          <t>1,12; 7,16</t>
+          <t>1,12; 8,09</t>
         </is>
       </c>
       <c r="L17" s="2" t="inlineStr">
         <is>
-          <t>1,37; 4,28</t>
+          <t>1,43; 4,34</t>
         </is>
       </c>
       <c r="M17" s="2" t="inlineStr">
         <is>
-          <t>2,49; 6,76</t>
+          <t>2,37; 6,45</t>
         </is>
       </c>
       <c r="N17" s="2" t="inlineStr">
         <is>
-          <t>2,78; 6,48</t>
+          <t>2,85; 6,41</t>
         </is>
       </c>
     </row>
@@ -1704,62 +1704,62 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>4,87; 12,32</t>
+          <t>4,95; 12,93</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>4,02; 7,87</t>
+          <t>4,03; 7,47</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>5,33; 14,17</t>
+          <t>5,69; 14,64</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>5,3; 10,04</t>
+          <t>5,2; 10,62</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
         <is>
-          <t>3,41; 6,13</t>
+          <t>3,37; 5,98</t>
         </is>
       </c>
       <c r="H19" s="2" t="inlineStr">
         <is>
-          <t>4,41; 6,92</t>
+          <t>4,44; 6,96</t>
         </is>
       </c>
       <c r="I19" s="2" t="inlineStr">
         <is>
-          <t>4,92; 8,08</t>
+          <t>4,93; 8,18</t>
         </is>
       </c>
       <c r="J19" s="2" t="inlineStr">
         <is>
-          <t>4,36; 9,52</t>
+          <t>4,32; 9,23</t>
         </is>
       </c>
       <c r="K19" s="2" t="inlineStr">
         <is>
-          <t>4,36; 7,7</t>
+          <t>4,4; 7,61</t>
         </is>
       </c>
       <c r="L19" s="2" t="inlineStr">
         <is>
-          <t>4,61; 6,61</t>
+          <t>4,6; 6,76</t>
         </is>
       </c>
       <c r="M19" s="2" t="inlineStr">
         <is>
-          <t>5,74; 9,92</t>
+          <t>5,71; 9,91</t>
         </is>
       </c>
       <c r="N19" s="2" t="inlineStr">
         <is>
-          <t>5,25; 8,8</t>
+          <t>5,2; 8,54</t>
         </is>
       </c>
     </row>
